--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件参数输入.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件参数输入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="81">
   <si>
     <t>用例编号</t>
   </si>
@@ -1056,6 +1056,10 @@
   </si>
   <si>
     <t>套件参数二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1572,18 +1576,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="20" max="20" width="14.875" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,11 +1664,14 @@
       <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -1737,9 +1745,10 @@
       <c r="Y2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>50</v>
       </c>
@@ -1813,9 +1822,10 @@
       <c r="Y3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
@@ -1889,9 +1899,10 @@
       <c r="Y4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
@@ -1965,9 +1976,10 @@
       <c r="Y5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
@@ -2041,16 +2053,35 @@
       <c r="Y6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S6 Z3:Z1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576 T1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7:AA1048576 T1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6">
@@ -2565,15 +2596,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2649,11 +2683,14 @@
       <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -2727,12 +2764,43 @@
       <c r="Y2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S2 Z3:Z1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
@@ -2749,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2766,11 +2834,12 @@
     <col min="20" max="20" width="6" style="4" customWidth="1"/>
     <col min="21" max="24" width="6" style="5" customWidth="1"/>
     <col min="25" max="25" width="7.625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="6.625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="10.875" style="8"/>
+    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2846,11 +2915,14 @@
       <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -2924,9 +2996,10 @@
       <c r="Y2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>50</v>
       </c>
@@ -3000,9 +3073,10 @@
       <c r="Y3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
@@ -3076,9 +3150,10 @@
       <c r="Y4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
@@ -3152,9 +3227,10 @@
       <c r="Y5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
@@ -3228,9 +3304,10 @@
       <c r="Y6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3256,9 +3333,10 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3284,7 +3362,20 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="4"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3295,7 +3386,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1048576 S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1048576 S1:S1048576 Z3:Z1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件参数输入.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件参数输入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -2097,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -2819,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件参数输入.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/紧固件强度校核/自动化紧固件参数输入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -396,7 +396,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="81">
   <si>
     <t>用例编号</t>
   </si>
@@ -575,10 +575,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>测试结果等待时间</t>
@@ -1060,6 +1056,10 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1599,43 +1599,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="N1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>9</v>
@@ -1659,13 +1659,13 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>14</v>
@@ -1673,19 +1673,19 @@
     </row>
     <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="12">
         <v>3.97</v>
@@ -1694,47 +1694,47 @@
         <v>17826</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="O2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="V2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W2" s="20" t="s">
         <v>7</v>
@@ -1743,26 +1743,26 @@
         <v>0.2</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="7"/>
     </row>
     <row r="3" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="12">
         <v>4</v>
@@ -1771,47 +1771,47 @@
         <v>17827</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="O3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="V3" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>7</v>
@@ -1820,26 +1820,26 @@
         <v>0.2</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12">
         <v>4.0999999999999996</v>
@@ -1848,47 +1848,47 @@
         <v>17828</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="O4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="V4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W4" s="20" t="s">
         <v>7</v>
@@ -1897,75 +1897,75 @@
         <v>0.2</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="V5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W5" s="20" t="s">
         <v>7</v>
@@ -1974,38 +1974,38 @@
         <v>0.2</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="7"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
@@ -2014,35 +2014,35 @@
         <v>17829</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W6" s="20" t="s">
         <v>7</v>
@@ -2051,7 +2051,7 @@
         <v>0.2</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="4"/>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2112,46 +2112,46 @@
     <row r="1" spans="1:15" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2159,46 +2159,46 @@
         <v>10</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="M2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="N2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="O2" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2206,46 +2206,46 @@
         <v>11</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2253,93 +2253,93 @@
         <v>12</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2391,190 +2391,190 @@
     </row>
     <row r="7" spans="1:15" s="24" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="24" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="24" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="24" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2618,46 +2618,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="N1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
@@ -2678,13 +2678,13 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>14</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="12">
         <v>3.97</v>
@@ -2713,47 +2713,47 @@
         <v>17826</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="O2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="V2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W2" s="20" t="s">
         <v>7</v>
@@ -2762,7 +2762,7 @@
         <v>0.2</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="7"/>
@@ -2817,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2828,18 +2828,17 @@
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="36.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="17" width="6.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="28.5" style="4" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6" style="4" customWidth="1"/>
-    <col min="21" max="24" width="6" style="5" customWidth="1"/>
-    <col min="25" max="25" width="7.625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="4" customWidth="1"/>
-    <col min="27" max="27" width="6.625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="8"/>
+    <col min="4" max="4" width="28.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="10" width="6" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="26" width="6.5" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2849,544 +2848,534 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="R1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="C2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3.97</v>
+      </c>
+      <c r="P2" s="12">
+        <v>17826</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="12">
         <v>4</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="P3" s="12">
+        <v>17827</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P4" s="12">
+        <v>17828</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="3">
         <v>5</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="12">
-        <v>3.97</v>
-      </c>
-      <c r="G2" s="12">
-        <v>17826</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="T6" s="12">
+        <v>17829</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>17827</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G4" s="12">
-        <v>17828</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="7"/>
-    </row>
-    <row r="5" spans="1:27" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5</v>
-      </c>
-      <c r="K6" s="12">
-        <v>17829</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z12" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1048576 S1:S1048576 Z3:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1048576 E1:E1048576 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
